--- a/홍영준13.xlsx
+++ b/홍영준13.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
-    <definedName name="대리점">제1작업!$D$5:$D$12</definedName>
+    <definedName name="여행경비">제1작업!$H$5:$H$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,231 +36,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>코드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>선박명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대리점</t>
-  </si>
-  <si>
-    <t>대리점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입항항</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입항일</t>
-  </si>
-  <si>
-    <t>입항일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>화물량
-(단위:톤)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입항
-요일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6362</t>
-  </si>
-  <si>
-    <t>A6362</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B8325</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3296</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1287</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1554</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2281</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7732</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6528</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 화물량(단위:톤)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>승호해운의 선박개수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>천곡211호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>추암203호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>평릉402호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>백석105호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼봉902호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비천107호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해동323호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대진704호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신일해운</t>
-  </si>
-  <si>
-    <t>신일해운</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>승호해운</t>
-  </si>
-  <si>
-    <t>승호해운</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>승호해운</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신일해운</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>태현이앤씨</t>
-  </si>
-  <si>
-    <t>태현이앤씨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신일해운</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>태현이앤씨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>목포</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신일해운 선박의 항차 평균</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C*</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=6000</t>
+    <t>여행지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행기간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발일</t>
+  </si>
+  <si>
+    <t>출발일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행경비
+(단위:원)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발
+시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS213</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE131</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS122</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT213</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE231</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE311</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS223</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT132</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬여행 여행경비(단위:원) 평균</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 이후 출발하는 여행상품 수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>울릉도</t>
+  </si>
+  <si>
+    <t>울릉도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방콕 파타야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 명소 탐방</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>북인도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>필리핀 세부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>독도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>남도 맛기행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬여행</t>
+  </si>
+  <si>
+    <t>섬여행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외여행</t>
+  </si>
+  <si>
+    <t>해외여행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기차여행</t>
+  </si>
+  <si>
+    <t>기차여행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외여행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬여행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기차여행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3박4일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4박6일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3박4일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1박2일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5박6일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4박5일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2박3일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1박2일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 여행경비(단위:원)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기차여행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=600000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>총합계</t>
   </si>
   <si>
-    <t>1월</t>
-  </si>
-  <si>
-    <t>2월</t>
-  </si>
-  <si>
     <t>3월</t>
   </si>
   <si>
-    <t>개수 : 선박명</t>
-  </si>
-  <si>
-    <t>평균 : 화물량</t>
+    <t>4월</t>
+  </si>
+  <si>
+    <t>5월</t>
+  </si>
+  <si>
+    <t>6월</t>
+  </si>
+  <si>
+    <t>개수 : 여행지</t>
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>평균 : 여행경비(단위:원)</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0&quot;항차&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;명&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -317,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -445,23 +448,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
@@ -542,33 +528,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -579,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,6 +680,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -598,132 +692,178 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
@@ -732,10 +872,210 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF0070C0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -795,7 +1135,7 @@
                 <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
                 <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               </a:rPr>
-              <a:t>신일해운 및 승호해운 모래수송선 실적</a:t>
+              <a:t>섬여행 및 해외여행 여행상품 현황</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" sz="2000" b="1">
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
@@ -846,14 +1186,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>화물량(단위:톤)</c:v>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>출발인원</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -861,9 +1209,113 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$7,제1작업!$C$9,제1작업!$C$10,제1작업!$C$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>울릉도</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>방콕 파타야</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>제주도</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>북인도</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>필리핀 세부</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>독도</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5,제1작업!$G$6,제1작업!$G$7,제1작업!$G$9,제1작업!$G$10,제1작업!$G$11)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"명"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B17-4BF3-92BF-878A7A29B590}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1516349152"/>
+        <c:axId val="1516350400"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>여행경비(단위:원)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="3"/>
               <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -876,7 +1328,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6DF3-4A19-94BC-27803C17051C}"/>
+                  <c16:uniqueId val="{00000002-7B17-4BF3-92BF-878A7A29B590}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -937,165 +1389,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11)</c:f>
+              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$7,제1작업!$C$9,제1작업!$C$10,제1작업!$C$11)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>천곡211호</c:v>
+                  <c:v>울릉도</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>추암203호</c:v>
+                  <c:v>방콕 파타야</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>평릉402호</c:v>
+                  <c:v>제주도</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>백석105호</c:v>
+                  <c:v>북인도</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>비천107호</c:v>
+                  <c:v>필리핀 세부</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>해동323호</c:v>
+                  <c:v>독도</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(제1작업!$H$5,제1작업!$H$6,제1작업!$H$7,제1작업!$H$8,제1작업!$H$10,제1작업!$H$11)</c:f>
+              <c:f>(제1작업!$H$5,제1작업!$H$6,제1작업!$H$7,제1작업!$H$9,제1작업!$H$10,제1작업!$H$11)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7820</c:v>
+                  <c:v>295000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5064</c:v>
+                  <c:v>639000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6322</c:v>
+                  <c:v>459000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4368</c:v>
+                  <c:v>1799900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3640</c:v>
+                  <c:v>799000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4325</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DF3-4A19-94BC-27803C17051C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="215595072"/>
-        <c:axId val="215595488"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>제1작업!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>항차</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(제1작업!$C$5,제1작업!$C$6,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11)</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>천곡211호</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>추암203호</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>평릉402호</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>백석105호</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>비천107호</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>해동323호</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(제1작업!$F$5,제1작업!$F$6,제1작업!$F$7,제1작업!$F$8,제1작업!$F$10,제1작업!$F$11)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0"항차"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>239000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1443,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DF3-4A19-94BC-27803C17051C}"/>
+              <c16:uniqueId val="{00000001-7B17-4BF3-92BF-878A7A29B590}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1117,11 +1457,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205128304"/>
-        <c:axId val="205127888"/>
+        <c:axId val="1638955072"/>
+        <c:axId val="1638957152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215595072"/>
+        <c:axId val="1516349152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1501,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215595488"/>
+        <c:crossAx val="1516350400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1169,7 +1509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215595488"/>
+        <c:axId val="1516350400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1530,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0&quot;명&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1223,18 +1563,18 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215595072"/>
+        <c:crossAx val="1516349152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205127888"/>
+        <c:axId val="1638957152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="#,##0&quot;항차&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1267,13 +1607,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205128304"/>
+        <c:crossAx val="1638955072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
+        <c:majorUnit val="500000"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="205128304"/>
+        <c:axId val="1638955072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1623,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205127888"/>
+        <c:crossAx val="1638957152"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1915,7 +2256,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1927,27 +2268,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>10026</xdr:colOff>
+      <xdr:colOff>23812</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>60158</xdr:rowOff>
+      <xdr:rowOff>41671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>566487</xdr:colOff>
+      <xdr:colOff>506016</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>235619</xdr:rowOff>
+      <xdr:rowOff>184546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="한쪽 모서리가 잘린 사각형 1"/>
+        <xdr:cNvPr id="2" name="평행 사변형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135355" y="60158"/>
-          <a:ext cx="3990474" cy="696829"/>
+          <a:off x="148828" y="41671"/>
+          <a:ext cx="4357688" cy="714375"/>
         </a:xfrm>
-        <a:prstGeom prst="snip1Rect">
+        <a:prstGeom prst="parallelogram">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -1983,6 +2324,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>AI </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="2400" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -1990,7 +2341,7 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>모래수송선 실적 현황</a:t>
+            <a:t>여행사 여행상품 현황</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1999,16 +2350,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>792078</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5954</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>135354</xdr:rowOff>
+      <xdr:rowOff>136922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>220579</xdr:colOff>
+      <xdr:colOff>244078</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>202029</xdr:rowOff>
+      <xdr:rowOff>110728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2032,8 +2383,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4491789" y="135354"/>
-          <a:ext cx="2140619" cy="588043"/>
+          <a:off x="4810126" y="136922"/>
+          <a:ext cx="2077640" cy="545306"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2059,7 +2410,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:ext cx="9299599" cy="6071279"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1"/>
@@ -2086,12 +2437,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.23658</cdr:x>
-      <cdr:y>0.10398</cdr:y>
+      <cdr:x>0.37752</cdr:x>
+      <cdr:y>0.10526</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.36409</cdr:x>
-      <cdr:y>0.17587</cdr:y>
+      <cdr:x>0.48658</cdr:x>
+      <cdr:y>0.20154</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2100,13 +2451,13 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2201680" y="632398"/>
-          <a:ext cx="1186722" cy="437213"/>
+          <a:off x="3513320" y="640205"/>
+          <a:ext cx="1014959" cy="585552"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -78728"/>
-            <a:gd name="adj2" fmla="val 51786"/>
+            <a:gd name="adj1" fmla="val 93697"/>
+            <a:gd name="adj2" fmla="val 13377"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2143,9 +2494,29 @@
               <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
               <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
             </a:rPr>
-            <a:t>최대 화물량</a:t>
+            <a:t>최대</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR">
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>여행경비</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -2160,7 +2531,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45093.445468171296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45096.473823958331" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:H12" sheet="제1작업"/>
   </cacheSource>
@@ -2168,46 +2539,43 @@
     <cacheField name="코드" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="선박명" numFmtId="0">
+    <cacheField name="여행지" numFmtId="0">
       <sharedItems count="8">
-        <s v="천곡211호"/>
-        <s v="추암203호"/>
-        <s v="평릉402호"/>
-        <s v="백석105호"/>
-        <s v="삼봉902호"/>
-        <s v="비천107호"/>
-        <s v="해동323호"/>
-        <s v="대진704호"/>
+        <s v="울릉도"/>
+        <s v="방콕 파타야"/>
+        <s v="제주도"/>
+        <s v="부산 명소 탐방"/>
+        <s v="북인도"/>
+        <s v="필리핀 세부"/>
+        <s v="독도"/>
+        <s v="남도 맛기행"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="대리점" numFmtId="0">
+    <cacheField name="분류" numFmtId="0">
       <sharedItems count="3">
-        <s v="신일해운"/>
-        <s v="승호해운"/>
-        <s v="태현이앤씨"/>
+        <s v="섬여행"/>
+        <s v="해외여행"/>
+        <s v="기차여행"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="입항항" numFmtId="0">
+    <cacheField name="여행기간" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="항차" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="82"/>
-    </cacheField>
-    <cacheField name="입항일" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-13T00:00:00" maxDate="2023-03-05T00:00:00" count="8">
-        <d v="2023-01-13T00:00:00"/>
-        <d v="2023-03-01T00:00:00"/>
-        <d v="2023-03-04T00:00:00"/>
-        <d v="2023-02-21T00:00:00"/>
-        <d v="2023-01-27T00:00:00"/>
-        <d v="2023-03-03T00:00:00"/>
-        <d v="2023-02-12T00:00:00"/>
-        <d v="2023-02-16T00:00:00"/>
+    <cacheField name="출발일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-03-15T00:00:00" maxDate="2023-06-02T00:00:00" count="8">
+        <d v="2023-05-23T00:00:00"/>
+        <d v="2023-04-20T00:00:00"/>
+        <d v="2023-03-15T00:00:00"/>
+        <d v="2023-05-12T00:00:00"/>
+        <d v="2023-03-18T00:00:00"/>
+        <d v="2023-06-01T00:00:00"/>
+        <d v="2023-04-10T00:00:00"/>
+        <d v="2023-03-19T00:00:00"/>
       </sharedItems>
-      <fieldGroup base="5">
-        <rangePr groupBy="months" startDate="2023-01-13T00:00:00" endDate="2023-03-05T00:00:00"/>
+      <fieldGroup base="4">
+        <rangePr groupBy="months" startDate="2023-03-15T00:00:00" endDate="2023-06-02T00:00:00"/>
         <groupItems count="14">
-          <s v="&lt;2023-01-13"/>
+          <s v="&lt;2023-03-15"/>
           <s v="1월"/>
           <s v="2월"/>
           <s v="3월"/>
@@ -2220,12 +2588,15 @@
           <s v="10월"/>
           <s v="11월"/>
           <s v="12월"/>
-          <s v="&gt;2023-03-05"/>
+          <s v="&gt;2023-06-02"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="화물량_x000a_(단위:톤)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2418" maxValue="7820"/>
+    <cacheField name="출발인원" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="30"/>
+    </cacheField>
+    <cacheField name="여행경비_x000a_(단위:원)" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="239000" maxValue="1799900"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2239,108 +2610,107 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
-    <s v="A6362"/>
+    <s v="AS213"/>
     <x v="0"/>
     <x v="0"/>
-    <s v="목포"/>
-    <n v="75"/>
+    <s v="3박4일"/>
     <x v="0"/>
-    <n v="7820"/>
+    <n v="30"/>
+    <n v="295000"/>
   </r>
   <r>
-    <s v="B8325"/>
+    <s v="AE131"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="인천"/>
-    <n v="82"/>
+    <s v="4박6일"/>
     <x v="1"/>
-    <n v="5064"/>
+    <n v="20"/>
+    <n v="639000"/>
   </r>
   <r>
-    <s v="C3296"/>
+    <s v="AS122"/>
     <x v="2"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <n v="11"/>
+    <x v="0"/>
+    <s v="3박4일"/>
     <x v="2"/>
-    <n v="6322"/>
+    <n v="25"/>
+    <n v="459000"/>
   </r>
   <r>
-    <s v="B1287"/>
+    <s v="AT213"/>
     <x v="3"/>
-    <x v="0"/>
-    <s v="부산"/>
-    <n v="6"/>
+    <x v="2"/>
+    <s v="1박2일"/>
     <x v="3"/>
-    <n v="4368"/>
+    <n v="30"/>
+    <n v="324000"/>
   </r>
   <r>
-    <s v="B1554"/>
+    <s v="AE231"/>
     <x v="4"/>
-    <x v="2"/>
-    <s v="인천"/>
-    <n v="4"/>
+    <x v="1"/>
+    <s v="5박6일"/>
     <x v="4"/>
-    <n v="5239"/>
+    <n v="20"/>
+    <n v="1799900"/>
   </r>
   <r>
-    <s v="C2281"/>
+    <s v="AE311"/>
     <x v="5"/>
     <x v="1"/>
-    <s v="부산"/>
-    <n v="68"/>
+    <s v="4박5일"/>
     <x v="5"/>
-    <n v="3640"/>
+    <n v="25"/>
+    <n v="799000"/>
   </r>
   <r>
-    <s v="A7732"/>
+    <s v="AS223"/>
     <x v="6"/>
     <x v="0"/>
-    <s v="인천"/>
-    <n v="5"/>
+    <s v="2박3일"/>
     <x v="6"/>
-    <n v="4325"/>
+    <n v="30"/>
+    <n v="239000"/>
   </r>
   <r>
-    <s v="A6528"/>
+    <s v="AT132"/>
     <x v="7"/>
     <x v="2"/>
-    <s v="인천"/>
-    <n v="48"/>
+    <s v="1박2일"/>
     <x v="7"/>
-    <n v="2418"/>
+    <n v="25"/>
+    <n v="355000"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="입항일" colHeaderCaption="대리점">
-  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="출발일" colHeaderCaption="분류">
+  <location ref="B2:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
       <items count="9">
         <item x="7"/>
+        <item x="6"/>
+        <item x="1"/>
         <item x="3"/>
-        <item x="5"/>
         <item x="4"/>
         <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
-        <item x="6"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="4">
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="176" showAll="0"/>
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -2360,20 +2730,24 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField numFmtId="176" showAll="0"/>
     <pivotField dataField="1" numFmtId="41" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="5"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
-      <x v="1"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2407,14 +2781,41 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="개수 : 선박명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="평균 : 화물량" fld="6" subtotal="average" baseField="5" baseItem="13"/>
+    <dataField name="개수 : 여행지" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 여행경비(단위:원)" fld="6" subtotal="average" baseField="4" baseItem="3"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="1">
+  <formats count="11">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2425,6 +2826,19 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E23" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="B18:E23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="여행지" dataDxfId="15"/>
+    <tableColumn id="2" name="여행기간" dataDxfId="14"/>
+    <tableColumn id="3" name="출발일" dataDxfId="13"/>
+    <tableColumn id="4" name="여행경비_x000a_(단위:원)" dataDxfId="12" dataCellStyle="쉼표 [0]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2690,94 +3104,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H11" activeCellId="20" sqref="C4 F4 H4 C5 F5 H5 C6 F6 H6 C7 F7 H7 C8 F8 H8 C10 F10 H10 C11 F11 H11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="3.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="26">
-        <v>75</v>
-      </c>
-      <c r="G5" s="29">
-        <v>44939</v>
-      </c>
-      <c r="H5" s="18">
-        <v>7820</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f>CHOOSE(WEEKDAY(G5:G12,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
-        <v>금요일</v>
-      </c>
-      <c r="J5" s="6" t="str">
-        <f>_xlfn.RANK.EQ(F5,$F$5:$F$12,0)&amp;"위"</f>
-        <v>2위</v>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45069</v>
+      </c>
+      <c r="G5" s="24">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14">
+        <v>295000</v>
+      </c>
+      <c r="I5" s="14">
+        <f>H5*CHOOSE(RIGHT(B5,1),1%,0.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="15" t="str">
+        <f>IF(WEEKDAY(F5,2)&lt;=5,"오전8시","오전10시")</f>
+        <v>오전8시</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -2786,60 +3201,60 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="27">
-        <v>82</v>
-      </c>
-      <c r="G6" s="30">
-        <v>44986</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5064</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" ref="I6:I12" si="0">CHOOSE(WEEKDAY(G6:G13,2),"월요일","화요일","수요일","목요일","금요일","토요일","일요일")</f>
-        <v>수요일</v>
+        <v>40</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45036</v>
+      </c>
+      <c r="G6" s="25">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4">
+        <v>639000</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I12" si="0">H6*CHOOSE(RIGHT(B6,1),1%,0.5%,0)</f>
+        <v>6390</v>
       </c>
       <c r="J6" s="8" t="str">
-        <f t="shared" ref="J6:J12" si="1">_xlfn.RANK.EQ(F6,$F$5:$F$12,0)&amp;"위"</f>
-        <v>1위</v>
+        <f t="shared" ref="J6:J12" si="1">IF(WEEKDAY(F6,2)&lt;=5,"오전8시","오전10시")</f>
+        <v>오전8시</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="27">
-        <v>11</v>
-      </c>
-      <c r="G7" s="30">
-        <v>44989</v>
-      </c>
-      <c r="H7" s="3">
-        <v>6322</v>
-      </c>
-      <c r="I7" s="2" t="str">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G7" s="25">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4">
+        <v>459000</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>토요일</v>
+        <v>2295</v>
       </c>
       <c r="J7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>5위</v>
+        <v>오전8시</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -2848,213 +3263,214 @@
         <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="27">
-        <v>6</v>
-      </c>
-      <c r="G8" s="30">
-        <v>44978</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4368</v>
-      </c>
-      <c r="I8" s="2" t="str">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45058</v>
+      </c>
+      <c r="G8" s="25">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4">
+        <v>324000</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>화요일</v>
+        <v>0</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>6위</v>
+        <v>오전8시</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="27">
-        <v>4</v>
-      </c>
-      <c r="G9" s="30">
-        <v>44953</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5239</v>
-      </c>
-      <c r="I9" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G9" s="25">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1799900</v>
+      </c>
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>금요일</v>
+        <v>17999</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>8위</v>
+        <v>오전10시</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="27">
-        <v>68</v>
-      </c>
-      <c r="G10" s="30">
-        <v>44988</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3640</v>
-      </c>
-      <c r="I10" s="2" t="str">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45078</v>
+      </c>
+      <c r="G10" s="25">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4">
+        <v>799000</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>금요일</v>
+        <v>7990</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>3위</v>
+        <v>오전8시</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="27">
-        <v>5</v>
-      </c>
-      <c r="G11" s="30">
-        <v>44969</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4325</v>
-      </c>
-      <c r="I11" s="2" t="str">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45026</v>
+      </c>
+      <c r="G11" s="25">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4">
+        <v>239000</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>일요일</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>7위</v>
+        <v>오전8시</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="17">
+        <v>45004</v>
+      </c>
+      <c r="G12" s="26">
+        <v>25</v>
+      </c>
+      <c r="H12" s="18">
+        <v>355000</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="0"/>
+        <v>1775</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>오전10시</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="11">
+        <f>DAVERAGE(B4:H12,H4,D4:D5)</f>
+        <v>331000</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="28">
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="12">
+        <f>LARGE(여행경비,1)</f>
+        <v>1799900</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="9" t="str">
+        <f>COUNTIF(F5:F12,"&gt;=2023-05-01")&amp;"개"</f>
+        <v>3개</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="31">
-        <v>44973</v>
-      </c>
-      <c r="H12" s="20">
-        <v>2418</v>
-      </c>
-      <c r="I12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>목요일</v>
-      </c>
-      <c r="J12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>4위</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="32">
-        <f>MIN(H5:H12)</f>
-        <v>2418</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="17">
-        <f>INT(DAVERAGE(B4:H12,F4,D4:D5))</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11">
-        <f>COUNTIF(대리점,D6)</f>
-        <v>3</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="13">
-        <f>VLOOKUP(H14,B5:F12,5,TRUE)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J14" s="10">
+        <f>VLOOKUP(H14,C5:G12,5,FALSE)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$F5&lt;=10</formula>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H5&gt;=600000</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
-      <formula1>$B$5:$B$12</formula1>
+      <formula1>$C$5:$C$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3065,75 +3481,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="26">
-        <v>75</v>
-      </c>
-      <c r="G3" s="29">
-        <v>44939</v>
-      </c>
-      <c r="H3" s="18">
-        <v>7820</v>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="13">
+        <v>45069</v>
+      </c>
+      <c r="G3" s="24">
+        <v>30</v>
+      </c>
+      <c r="H3" s="14">
+        <v>295000</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -3142,44 +3557,44 @@
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="27">
-        <v>82</v>
-      </c>
-      <c r="G4" s="30">
-        <v>44986</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5064</v>
+        <v>40</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45036</v>
+      </c>
+      <c r="G4" s="25">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
+        <v>639000</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="27">
-        <v>11</v>
-      </c>
-      <c r="G5" s="30">
-        <v>44989</v>
-      </c>
-      <c r="H5" s="3">
-        <v>6322</v>
+        <v>41</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G5" s="25">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4">
+        <v>459000</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
@@ -3188,115 +3603,116 @@
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="27">
-        <v>6</v>
-      </c>
-      <c r="G6" s="30">
-        <v>44978</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4368</v>
+        <v>42</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45058</v>
+      </c>
+      <c r="G6" s="25">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4">
+        <v>324000</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="27">
-        <v>4</v>
-      </c>
-      <c r="G7" s="30">
-        <v>44953</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5239</v>
+        <v>43</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45003</v>
+      </c>
+      <c r="G7" s="25">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1799900</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="27">
-        <v>68</v>
-      </c>
-      <c r="G8" s="30">
-        <v>44988</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3640</v>
+        <v>44</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45078</v>
+      </c>
+      <c r="G8" s="25">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4">
+        <v>799000</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45026</v>
+      </c>
+      <c r="G9" s="25">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4">
+        <v>239000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="27">
-        <v>5</v>
-      </c>
-      <c r="G9" s="30">
-        <v>44969</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="28">
-        <v>48</v>
-      </c>
-      <c r="G10" s="31">
-        <v>44973</v>
-      </c>
-      <c r="H10" s="20">
-        <v>2418</v>
-      </c>
-    </row>
+      <c r="F10" s="17">
+        <v>45004</v>
+      </c>
+      <c r="G10" s="26">
+        <v>25</v>
+      </c>
+      <c r="H10" s="18">
+        <v>355000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3311,69 +3727,100 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="36" t="s">
+      <c r="C18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="37">
-        <v>75</v>
-      </c>
-      <c r="E19" s="38">
-        <v>7820</v>
+      <c r="B19" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="28">
+        <v>45036</v>
+      </c>
+      <c r="E19" s="30">
+        <v>639000</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="37">
-        <v>11</v>
-      </c>
-      <c r="E20" s="38">
-        <v>6322</v>
+      <c r="B20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="28">
+        <v>45058</v>
+      </c>
+      <c r="E20" s="30">
+        <v>324000</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="28">
+        <v>45003</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1799900</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="37">
-        <v>68</v>
-      </c>
-      <c r="E21" s="38">
-        <v>3640</v>
+      <c r="C22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="28">
+        <v>45078</v>
+      </c>
+      <c r="E22" s="30">
+        <v>799000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="36">
+        <v>45004</v>
+      </c>
+      <c r="E23" s="37">
+        <v>355000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$F3&lt;=10</formula>
+    <cfRule type="expression" dxfId="18" priority="1">
+      <formula>$H3&gt;=600000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3381,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3390,179 +3837,193 @@
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="40"/>
-      <c r="C3" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="42"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="48"/>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="44" t="s">
+      <c r="B4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="44" t="s">
+      <c r="D4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="44" t="s">
+      <c r="F4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>57</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="42">
         <v>1</v>
       </c>
-      <c r="D5" s="45">
-        <v>5239</v>
-      </c>
-      <c r="E5" s="45">
+      <c r="D5" s="42">
+        <v>1799900</v>
+      </c>
+      <c r="E5" s="42">
         <v>1</v>
       </c>
-      <c r="F5" s="45">
-        <v>7820</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>58</v>
+      <c r="F5" s="42">
+        <v>459000</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
+      <c r="H5" s="42">
+        <v>355000</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="42">
         <v>1</v>
       </c>
-      <c r="D6" s="45">
-        <v>2418</v>
-      </c>
-      <c r="E6" s="45">
-        <v>2</v>
-      </c>
-      <c r="F6" s="45">
-        <v>4346.5</v>
-      </c>
-      <c r="G6" s="45" t="s">
+      <c r="D6" s="42">
+        <v>639000</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
+        <v>239000</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="42" t="s">
         <v>58</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="45">
-        <v>3</v>
-      </c>
-      <c r="H7" s="45">
-        <v>5008.666666666667</v>
+      <c r="E7" s="42">
+        <v>1</v>
+      </c>
+      <c r="F7" s="42">
+        <v>295000</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+      <c r="H7" s="42">
+        <v>324000</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="45">
-        <v>2</v>
-      </c>
-      <c r="D8" s="45">
-        <v>3828.5</v>
-      </c>
-      <c r="E8" s="45">
-        <v>3</v>
-      </c>
-      <c r="F8" s="45">
-        <v>5504.333333333333</v>
-      </c>
-      <c r="G8" s="45">
-        <v>3</v>
-      </c>
-      <c r="H8" s="45">
-        <v>5008.666666666667</v>
+      <c r="B8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="42">
+        <v>1</v>
+      </c>
+      <c r="D8" s="42">
+        <v>799000</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>58</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
+      <c r="B9" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="42">
+        <v>3</v>
+      </c>
+      <c r="D9" s="42">
+        <v>1079300</v>
+      </c>
+      <c r="E9" s="42">
+        <v>3</v>
+      </c>
+      <c r="F9" s="42">
+        <v>331000</v>
+      </c>
+      <c r="G9" s="42">
+        <v>2</v>
+      </c>
+      <c r="H9" s="42">
+        <v>339500</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
     </row>
